--- a/List of Cities and Health Outcomes.xlsx
+++ b/List of Cities and Health Outcomes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Waukegan</t>
   </si>
@@ -111,18 +111,6 @@
   </si>
   <si>
     <t>Average Health Outcome Rank</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -494,7 +482,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="9">
-        <f>AVERAGE(B2:J2)</f>
+        <f t="shared" ref="K2:K19" si="0">AVERAGE(B2:J2)</f>
         <v>2.1111111111111112</v>
       </c>
       <c r="L2" s="1"/>
@@ -611,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="9">
-        <f>AVERAGE(B3:J3)</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="L3" s="1"/>
@@ -648,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="9">
-        <f>AVERAGE(B4:J4)</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
       <c r="L4" s="1"/>
@@ -685,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="9">
-        <f>AVERAGE(B5:J5)</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="L5" s="1"/>
@@ -722,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="9">
-        <f>AVERAGE(B6:J6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L6" s="1"/>
@@ -759,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="9">
-        <f>AVERAGE(B7:J7)</f>
+        <f t="shared" si="0"/>
         <v>6.1111111111111107</v>
       </c>
       <c r="L7" s="1"/>
@@ -796,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="9">
-        <f>AVERAGE(B8:J8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L8" s="1"/>
@@ -833,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="9">
-        <f>AVERAGE(B9:J9)</f>
+        <f t="shared" si="0"/>
         <v>8.1111111111111107</v>
       </c>
       <c r="L9" s="1"/>
@@ -870,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="9">
-        <f>AVERAGE(B10:J10)</f>
+        <f t="shared" si="0"/>
         <v>9.5555555555555554</v>
       </c>
       <c r="L10" s="1"/>
@@ -907,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="9">
-        <f>AVERAGE(B11:J11)</f>
+        <f t="shared" si="0"/>
         <v>9.8888888888888893</v>
       </c>
       <c r="L11" s="1"/>
@@ -944,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="9">
-        <f>AVERAGE(B12:J12)</f>
+        <f t="shared" si="0"/>
         <v>10.777777777777779</v>
       </c>
       <c r="L12" s="1"/>
@@ -981,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="9">
-        <f>AVERAGE(B13:J13)</f>
+        <f t="shared" si="0"/>
         <v>11.444444444444445</v>
       </c>
       <c r="L13" s="1"/>
@@ -1018,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="9">
-        <f>AVERAGE(B14:J14)</f>
+        <f t="shared" si="0"/>
         <v>12.444444444444445</v>
       </c>
       <c r="L14" s="1"/>
@@ -1055,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="9">
-        <f>AVERAGE(B15:J15)</f>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="L15" s="1"/>
@@ -1092,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="9">
-        <f>AVERAGE(B16:J16)</f>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="L16" s="1"/>
@@ -1129,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="9">
-        <f>AVERAGE(B17:J17)</f>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="L17" s="1"/>
@@ -1166,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="K18" s="9">
-        <f>AVERAGE(B18:J18)</f>
+        <f t="shared" si="0"/>
         <v>14.444444444444445</v>
       </c>
       <c r="L18" s="1"/>
@@ -1203,7 +1191,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="9">
-        <f>AVERAGE(B19:J19)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L19" s="1"/>
